--- a/1app/scrap3.xlsx
+++ b/1app/scrap3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -34,328 +34,325 @@
     <t>Review</t>
   </si>
   <si>
-    <t>PHILIPS BT1232/15  Runtime: 30 mins Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS BT3101/15  Runtime: 45 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS OneBlade QP2525/10  Runtime: 45 min Trimmer for...</t>
-  </si>
-  <si>
-    <t>PHILIPS Astra Line 20 W 4 Ft Straight Linear LED Tube L...</t>
-  </si>
-  <si>
-    <t>PHILIPS BT3211/15  Runtime: 60 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS BT3102/15  Runtime: 60 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS BT3221/15  Runtime: 90 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS TwinGlow 20+20 Watt (Up-Yellow; Down- White) Ba...</t>
-  </si>
-  <si>
-    <t>PHILIPS MG5740/15  Runtime: 80 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS SHE1505BK/94 Rich Bass Wired Headset</t>
-  </si>
-  <si>
-    <t>PHILIPS HP8100/46 Hair Dryer</t>
-  </si>
-  <si>
-    <t>PHILIPS Blazon HP8120/00 Hair Dryer</t>
-  </si>
-  <si>
-    <t>PHILIPS TAT1215BK (TWS) with IPX4 Splash-Proof Design B...</t>
-  </si>
-  <si>
-    <t>PHILIPS 8.5 W Round B22 LED Bulb</t>
-  </si>
-  <si>
-    <t>PHILIPS GC090 750 W Dry Iron</t>
-  </si>
-  <si>
-    <t>PHILIPS AC2887/20 (883 4887 20280) Portable Room Air Pu...</t>
-  </si>
-  <si>
-    <t>PHILIPS HI114 1000 W Dry Iron</t>
-  </si>
-  <si>
-    <t>PHILIPS BHB862 Electric Hair Curler</t>
-  </si>
-  <si>
-    <t>PHILIPS BT1212/15  Runtime: 30 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS FY3433 Air Purifier Filter</t>
-  </si>
-  <si>
-    <t>PHILIPS 1210  Runtime: 30 min Trimmer for Men &amp; Women</t>
-  </si>
-  <si>
-    <t>PHILIPS BT1210  Runtime: 30 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS NEW SERIES  Runtime: 60 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS HR1350/90 250 W Hand Blender</t>
-  </si>
-  <si>
-    <t>PHILIPS BT1235/15  Runtime: 60 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS BG1025/15  Runtime: 45 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS QT 4001  Runtime: 45 min Trimmer for Men</t>
-  </si>
-  <si>
-    <t>PHILIPS HR3705/10 300 W Stand Mixer, Hand Blender</t>
-  </si>
-  <si>
-    <t>Philips BT40 Portable Bluetooth Speaker</t>
-  </si>
-  <si>
-    <t>PHILIPS HP8302/06 Hair Straightener</t>
-  </si>
-  <si>
-    <t>PHILIPS 10 W Standard B22 LED Bulb</t>
-  </si>
-  <si>
-    <t>PHILIPS HL1655/00 250 W Hand Blender</t>
-  </si>
-  <si>
-    <t>PHILIPS BHH880 /10 Hair Straightener</t>
-  </si>
-  <si>
-    <t>Philips GC1905 Steam Iron, 1440 W</t>
-  </si>
-  <si>
-    <t>PHILIPS HD4928/01 Induction Cooktop</t>
-  </si>
-  <si>
-    <t>PHILIPS FY2420 NanoProtect Active Carbon Filter for Phi...</t>
-  </si>
-  <si>
-    <t>PHILIPS DLC1530U 5 A 1.2 m Rubber Micro USB Cable</t>
-  </si>
-  <si>
-    <t>PHILIPS MG7715/15 Multi-Grooming Kit For Men  Runtime: ...</t>
-  </si>
-  <si>
-    <t>PHILIPS HP6388/00  Runtime: 60 min Trimmer for Women</t>
-  </si>
-  <si>
-    <t>PHILIPS Humidification Filter AC4155 for Philips Air Pu...</t>
-  </si>
-  <si>
-    <t>₹899</t>
-  </si>
-  <si>
-    <t>₹1,399</t>
-  </si>
-  <si>
-    <t>₹1,729</t>
-  </si>
-  <si>
-    <t>₹739</t>
-  </si>
-  <si>
-    <t>₹1,700</t>
-  </si>
-  <si>
-    <t>₹1,429</t>
-  </si>
-  <si>
-    <t>₹2,099</t>
-  </si>
-  <si>
-    <t>₹2,549</t>
-  </si>
-  <si>
-    <t>₹294</t>
-  </si>
-  <si>
-    <t>₹759</t>
-  </si>
-  <si>
-    <t>₹1,195</t>
-  </si>
-  <si>
-    <t>₹1,599</t>
-  </si>
-  <si>
-    <t>₹169</t>
-  </si>
-  <si>
-    <t>₹585</t>
-  </si>
-  <si>
-    <t>₹16,990</t>
-  </si>
-  <si>
-    <t>₹891</t>
-  </si>
-  <si>
-    <t>₹1,749</t>
-  </si>
-  <si>
-    <t>₹945</t>
-  </si>
-  <si>
-    <t>₹2,799</t>
-  </si>
-  <si>
-    <t>₹944</t>
-  </si>
-  <si>
-    <t>₹869</t>
-  </si>
-  <si>
-    <t>₹1,475</t>
-  </si>
-  <si>
-    <t>₹1,367</t>
-  </si>
-  <si>
-    <t>₹1,190</t>
-  </si>
-  <si>
-    <t>₹1,401</t>
+    <t>Ssc Constable Gd Exam Guide 2021</t>
+  </si>
+  <si>
+    <t>Quantitative Aptitude for Competitive Examinations with...</t>
+  </si>
+  <si>
+    <t>Objective Ncert at Your Fingertips for Neet-Aiims - Bio...</t>
+  </si>
+  <si>
+    <t>You Only Live Once</t>
+  </si>
+  <si>
+    <t>15 Practice Sets Ssc Constable Gd 2021</t>
+  </si>
+  <si>
+    <t>Baniye Network Marketing Millionaire - Network marketin...</t>
+  </si>
+  <si>
+    <t>Attitude Is Everything: Change Your Attitude ... Change...</t>
+  </si>
+  <si>
+    <t>Computer Knowledge For Sbi Ibps Clerk Po Rrb Rbi Ssc Ra...</t>
+  </si>
+  <si>
+    <t>33 Years NEET-AIPMT Chapterwise Solutions -Physics, Che...</t>
+  </si>
+  <si>
+    <t>Lucent's - General Knowledge 2020 Edition</t>
+  </si>
+  <si>
+    <t>8 Years Upsc Civil Services IAS Mains Essay Year-Wise S...</t>
+  </si>
+  <si>
+    <t>Rich Dad Poor Dad</t>
+  </si>
+  <si>
+    <t>Word Power Made Easy - The Complete Handbook for Buildi...</t>
+  </si>
+  <si>
+    <t>Cbse All in One Science Class 10 for for 2022 Exam</t>
+  </si>
+  <si>
+    <t>Mission IAS</t>
+  </si>
+  <si>
+    <t>26 Years Upsc IAS/ Ips Prelims Topic-Wise Solved Papers...</t>
+  </si>
+  <si>
+    <t>General Knowledge 2022</t>
+  </si>
+  <si>
+    <t>Upsc New Syllabus &amp; Tips to Crack IAS Preliminary and M...</t>
+  </si>
+  <si>
+    <t>How to Crack Test of Reasoning</t>
+  </si>
+  <si>
+    <t>Great Stories for Children</t>
+  </si>
+  <si>
+    <t>Ssc Samanya Gyan Topic-Wise</t>
+  </si>
+  <si>
+    <t>Oxford Student Atlas for India</t>
+  </si>
+  <si>
+    <t>The Psychology of Money</t>
+  </si>
+  <si>
+    <t>Bharat Ki Rajvyavastha ( Indian Polity ) - Civil Seva E...</t>
+  </si>
+  <si>
+    <t>Guide for Intelligence Bureau Assistant Central Intelli...</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Cbse All in One English Language &amp; Literature Class 10 ...</t>
+  </si>
+  <si>
+    <t>How to Prepare For LOGICAL REASONING For CAT | 6th Edit...</t>
+  </si>
+  <si>
+    <t>Olympiad Champs Science, Mathematics, English Class 5</t>
+  </si>
+  <si>
+    <t>A Modern Approach to Verbal &amp; Non-Verbal Reasoning - In...</t>
+  </si>
+  <si>
+    <t>13 Years Solved Papers NEET 2021</t>
+  </si>
+  <si>
+    <t>Pathfinder Nda/Na National Defence Academy &amp; Naval Acad...</t>
+  </si>
+  <si>
+    <t>Olympiad Champs Science, Mathematics, English, Logical ...</t>
+  </si>
+  <si>
+    <t>Upsssc Pet Preliminary Exam Guide 2021</t>
+  </si>
+  <si>
+    <t>Bharatiya Kala Evam Sanskriti ( Indian Art and Culture ...</t>
+  </si>
+  <si>
+    <t>Concepts Of Physics Vol I &amp; II With Solutions Of Both T...</t>
+  </si>
+  <si>
+    <t>Olympiad Champs Science, Mathematics, English Class 7 w...</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹450</t>
+  </si>
+  <si>
+    <t>₹544</t>
+  </si>
+  <si>
+    <t>₹152</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹135</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹548</t>
+  </si>
+  <si>
+    <t>₹151</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹192</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹345</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹310</t>
+  </si>
+  <si>
+    <t>₹130</t>
+  </si>
+  <si>
+    <t>₹280</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹215</t>
+  </si>
+  <si>
+    <t>₹255</t>
+  </si>
+  <si>
+    <t>₹580</t>
+  </si>
+  <si>
+    <t>₹226</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹600</t>
+  </si>
+  <si>
+    <t>₹550</t>
+  </si>
+  <si>
+    <t>₹528</t>
+  </si>
+  <si>
+    <t>₹285</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹929</t>
+  </si>
+  <si>
+    <t>₹183</t>
   </si>
   <si>
     <t>₹999</t>
   </si>
   <si>
-    <t>₹2,255</t>
-  </si>
-  <si>
-    <t>₹1,099</t>
-  </si>
-  <si>
-    <t>₹1,139</t>
-  </si>
-  <si>
-    <t>₹559</t>
-  </si>
-  <si>
-    <t>₹1,695</t>
-  </si>
-  <si>
-    <t>₹2,709</t>
-  </si>
-  <si>
-    <t>₹1,400</t>
-  </si>
-  <si>
-    <t>₹2,849</t>
-  </si>
-  <si>
-    <t>₹1,470</t>
-  </si>
-  <si>
-    <t>₹219</t>
-  </si>
-  <si>
-    <t>₹3,899</t>
-  </si>
-  <si>
-    <t>₹1,050</t>
-  </si>
-  <si>
-    <t>₹962</t>
-  </si>
-  <si>
-    <t>₹1,495</t>
-  </si>
-  <si>
-    <t>₹2,199</t>
-  </si>
-  <si>
-    <t>₹1,200</t>
-  </si>
-  <si>
-    <t>₹1,895</t>
-  </si>
-  <si>
-    <t>₹2,395</t>
-  </si>
-  <si>
-    <t>₹1,499</t>
-  </si>
-  <si>
-    <t>₹2,995</t>
+    <t>₹392</t>
+  </si>
+  <si>
+    <t>₹240</t>
+  </si>
+  <si>
+    <t>₹749</t>
+  </si>
+  <si>
+    <t>₹900</t>
+  </si>
+  <si>
+    <t>₹250</t>
+  </si>
+  <si>
+    <t>₹140</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
+  <si>
+    <t>₹950</t>
+  </si>
+  <si>
+    <t>₹225</t>
+  </si>
+  <si>
+    <t>₹299</t>
+  </si>
+  <si>
+    <t>₹175</t>
+  </si>
+  <si>
+    <t>₹515</t>
+  </si>
+  <si>
+    <t>₹270</t>
+  </si>
+  <si>
+    <t>₹575</t>
+  </si>
+  <si>
+    <t>₹195</t>
+  </si>
+  <si>
+    <t>₹499</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹315</t>
   </si>
   <si>
     <t>₹399</t>
   </si>
   <si>
-    <t>₹845</t>
-  </si>
-  <si>
-    <t>₹1,245</t>
-  </si>
-  <si>
-    <t>₹4,999</t>
-  </si>
-  <si>
-    <t>₹340</t>
-  </si>
-  <si>
-    <t>₹655</t>
-  </si>
-  <si>
-    <t>₹22,995</t>
-  </si>
-  <si>
-    <t>₹1,095</t>
-  </si>
-  <si>
-    <t>₹1,995</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>₹3,395</t>
-  </si>
-  <si>
-    <t>₹995</t>
-  </si>
-  <si>
-    <t>₹895</t>
-  </si>
-  <si>
-    <t>₹1,595</t>
-  </si>
-  <si>
-    <t>₹1,481</t>
-  </si>
-  <si>
-    <t>₹2,495</t>
-  </si>
-  <si>
-    <t>₹1,999</t>
-  </si>
-  <si>
-    <t>₹1,295</t>
-  </si>
-  <si>
-    <t>₹3,495</t>
-  </si>
-  <si>
-    <t>₹5,295</t>
-  </si>
-  <si>
-    <t>₹299</t>
-  </si>
-  <si>
-    <t>₹4,295</t>
+    <t>₹870</t>
+  </si>
+  <si>
+    <t>₹440</t>
+  </si>
+  <si>
+    <t>₹475</t>
+  </si>
+  <si>
+    <t>₹750</t>
+  </si>
+  <si>
+    <t>₹760</t>
+  </si>
+  <si>
+    <t>₹850</t>
+  </si>
+  <si>
+    <t>₹480</t>
+  </si>
+  <si>
+    <t>₹775</t>
+  </si>
+  <si>
+    <t>₹1,545</t>
+  </si>
+  <si>
+    <t>₹295</t>
+  </si>
+  <si>
+    <t>₹690</t>
+  </si>
+  <si>
+    <t>₹1,370</t>
+  </si>
+  <si>
+    <t>₹790</t>
   </si>
   <si>
     <t>4.3</t>
@@ -364,226 +361,193 @@
     <t>4.4</t>
   </si>
   <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4% off</t>
-  </si>
-  <si>
-    <t>6% off</t>
-  </si>
-  <si>
-    <t>21% off</t>
-  </si>
-  <si>
-    <t>38% off</t>
-  </si>
-  <si>
-    <t>10% off</t>
-  </si>
-  <si>
-    <t>12% off</t>
+    <t>35% off</t>
+  </si>
+  <si>
+    <t>39% off</t>
   </si>
   <si>
     <t>40% off</t>
   </si>
   <si>
-    <t>14% off</t>
-  </si>
-  <si>
-    <t>26% off</t>
-  </si>
-  <si>
-    <t>68% off</t>
+    <t>33% off</t>
+  </si>
+  <si>
+    <t>32% off</t>
+  </si>
+  <si>
+    <t>47% off</t>
+  </si>
+  <si>
+    <t>42% off</t>
+  </si>
+  <si>
+    <t>43% off</t>
+  </si>
+  <si>
+    <t>48% off</t>
+  </si>
+  <si>
+    <t>46% off</t>
+  </si>
+  <si>
+    <t>20% off</t>
+  </si>
+  <si>
+    <t>30% off</t>
+  </si>
+  <si>
+    <t>36% off</t>
+  </si>
+  <si>
+    <t>31% off</t>
+  </si>
+  <si>
+    <t>27% off</t>
+  </si>
+  <si>
+    <t>37% off</t>
+  </si>
+  <si>
+    <t>34% off</t>
   </si>
   <si>
     <t>50% off</t>
   </si>
   <si>
-    <t>18% off</t>
-  </si>
-  <si>
-    <t>17% off</t>
-  </si>
-  <si>
-    <t>5% off</t>
-  </si>
-  <si>
-    <t>2% off</t>
-  </si>
-  <si>
-    <t>1% off</t>
-  </si>
-  <si>
-    <t>8% off</t>
-  </si>
-  <si>
-    <t>32% off</t>
-  </si>
-  <si>
-    <t>9% off</t>
-  </si>
-  <si>
-    <t>45% off</t>
-  </si>
-  <si>
-    <t>53% off</t>
-  </si>
-  <si>
-    <t>22% off</t>
-  </si>
-  <si>
-    <t>46% off</t>
-  </si>
-  <si>
-    <t>7% off</t>
-  </si>
-  <si>
-    <t>34% off</t>
-  </si>
-  <si>
-    <t>(1,655)</t>
-  </si>
-  <si>
-    <t>(1,04,293)</t>
-  </si>
-  <si>
-    <t>(26,872)</t>
-  </si>
-  <si>
-    <t>(4,361)</t>
-  </si>
-  <si>
-    <t>(75,417)</t>
-  </si>
-  <si>
-    <t>(7,108)</t>
-  </si>
-  <si>
-    <t>(48,726)</t>
-  </si>
-  <si>
-    <t>(838)</t>
-  </si>
-  <si>
-    <t>(1,761)</t>
-  </si>
-  <si>
-    <t>(12,120)</t>
-  </si>
-  <si>
-    <t>(2,15,029)</t>
-  </si>
-  <si>
-    <t>(11,895)</t>
-  </si>
-  <si>
-    <t>(22,274)</t>
-  </si>
-  <si>
-    <t>(1,83,998)</t>
-  </si>
-  <si>
-    <t>(10,760)</t>
-  </si>
-  <si>
-    <t>(771)</t>
-  </si>
-  <si>
-    <t>(36,542)</t>
-  </si>
-  <si>
-    <t>(6,762)</t>
-  </si>
-  <si>
-    <t>(2,03,444)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(378)</t>
-  </si>
-  <si>
-    <t>(77,536)</t>
-  </si>
-  <si>
-    <t>(934)</t>
-  </si>
-  <si>
-    <t>(5,953)</t>
-  </si>
-  <si>
-    <t>(17)</t>
-  </si>
-  <si>
-    <t>(28,860)</t>
-  </si>
-  <si>
-    <t>(1,735)</t>
-  </si>
-  <si>
-    <t>(1,874)</t>
-  </si>
-  <si>
-    <t>(68,070)</t>
-  </si>
-  <si>
-    <t>(52,578)</t>
-  </si>
-  <si>
-    <t>(4,054)</t>
-  </si>
-  <si>
-    <t>(12,559)</t>
-  </si>
-  <si>
-    <t>(15,685)</t>
-  </si>
-  <si>
-    <t>(1,29,003)</t>
-  </si>
-  <si>
-    <t>(87,967)</t>
+    <t>(1,624)</t>
+  </si>
+  <si>
+    <t>(54,378)</t>
+  </si>
+  <si>
+    <t>(24,283)</t>
+  </si>
+  <si>
+    <t>(1,032)</t>
+  </si>
+  <si>
+    <t>(488)</t>
+  </si>
+  <si>
+    <t>(3,452)</t>
+  </si>
+  <si>
+    <t>(42,944)</t>
+  </si>
+  <si>
+    <t>(2,024)</t>
+  </si>
+  <si>
+    <t>(4,880)</t>
+  </si>
+  <si>
+    <t>(35,552)</t>
+  </si>
+  <si>
+    <t>(887)</t>
+  </si>
+  <si>
+    <t>(244)</t>
+  </si>
+  <si>
+    <t>(7,442)</t>
+  </si>
+  <si>
+    <t>(85,923)</t>
+  </si>
+  <si>
+    <t>(1,246)</t>
+  </si>
+  <si>
+    <t>(2,132)</t>
+  </si>
+  <si>
+    <t>(9,762)</t>
+  </si>
+  <si>
+    <t>(2,146)</t>
+  </si>
+  <si>
+    <t>(32,494)</t>
+  </si>
+  <si>
+    <t>(9,330)</t>
+  </si>
+  <si>
+    <t>(4,298)</t>
+  </si>
+  <si>
+    <t>(19,345)</t>
+  </si>
+  <si>
+    <t>(10,739)</t>
+  </si>
+  <si>
+    <t>(67)</t>
+  </si>
+  <si>
+    <t>(32,950)</t>
+  </si>
+  <si>
+    <t>(3,191)</t>
+  </si>
+  <si>
+    <t>(13,848)</t>
+  </si>
+  <si>
+    <t>(86)</t>
+  </si>
+  <si>
+    <t>(15,596)</t>
+  </si>
+  <si>
+    <t>(1,061)</t>
+  </si>
+  <si>
+    <t>(95)</t>
+  </si>
+  <si>
+    <t>(59)</t>
+  </si>
+  <si>
+    <t>(30,603)</t>
+  </si>
+  <si>
+    <t>(1,209)</t>
+  </si>
+  <si>
+    <t>(9,503)</t>
+  </si>
+  <si>
+    <t>(35)</t>
+  </si>
+  <si>
+    <t>(302)</t>
+  </si>
+  <si>
+    <t>(4,971)</t>
+  </si>
+  <si>
+    <t>(1,889)</t>
   </si>
   <si>
     <t>(20)</t>
-  </si>
-  <si>
-    <t>(60)</t>
-  </si>
-  <si>
-    <t>(8,972)</t>
-  </si>
-  <si>
-    <t>(1,561)</t>
-  </si>
-  <si>
-    <t>(4)</t>
   </si>
 </sst>
 </file>
@@ -975,19 +939,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -998,19 +962,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1021,19 +985,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1044,19 +1008,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1067,19 +1031,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1090,19 +1054,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1113,19 +1077,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1136,19 +1100,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1159,19 +1123,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1182,19 +1146,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1202,22 +1166,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1225,22 +1189,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1248,22 +1212,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1271,22 +1235,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1294,22 +1258,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1317,22 +1281,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1340,22 +1304,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1363,22 +1327,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1386,22 +1350,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1409,22 +1373,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1432,22 +1396,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1455,22 +1419,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1478,22 +1442,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1501,22 +1465,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1524,22 +1488,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1547,22 +1511,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1570,22 +1534,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1593,22 +1557,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1616,22 +1580,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1639,22 +1603,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1662,22 +1626,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1685,22 +1649,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1708,22 +1672,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1731,22 +1695,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1754,22 +1718,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1777,22 +1741,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1800,22 +1764,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1823,22 +1787,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1846,22 +1810,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1869,22 +1833,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/1app/scrap3.xlsx
+++ b/1app/scrap3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="177">
   <si>
     <t>Title</t>
   </si>
@@ -34,520 +34,517 @@
     <t>Review</t>
   </si>
   <si>
-    <t>Ssc Constable Gd Exam Guide 2021</t>
-  </si>
-  <si>
-    <t>Quantitative Aptitude for Competitive Examinations with...</t>
-  </si>
-  <si>
-    <t>Objective Ncert at Your Fingertips for Neet-Aiims - Bio...</t>
-  </si>
-  <si>
-    <t>You Only Live Once</t>
-  </si>
-  <si>
-    <t>15 Practice Sets Ssc Constable Gd 2021</t>
-  </si>
-  <si>
-    <t>Baniye Network Marketing Millionaire - Network marketin...</t>
-  </si>
-  <si>
-    <t>Attitude Is Everything: Change Your Attitude ... Change...</t>
-  </si>
-  <si>
-    <t>Computer Knowledge For Sbi Ibps Clerk Po Rrb Rbi Ssc Ra...</t>
-  </si>
-  <si>
-    <t>33 Years NEET-AIPMT Chapterwise Solutions -Physics, Che...</t>
-  </si>
-  <si>
-    <t>Lucent's - General Knowledge 2020 Edition</t>
-  </si>
-  <si>
-    <t>8 Years Upsc Civil Services IAS Mains Essay Year-Wise S...</t>
+    <t>Learning How To Fly - Life Lessons for the Youth</t>
+  </si>
+  <si>
+    <t>Life's Amazing Secrets</t>
+  </si>
+  <si>
+    <t>Word Power Made Easy - The Complete Handbook for Buildi...</t>
+  </si>
+  <si>
+    <t>JEE Mains Absolute PCM Books Combo For 2021 Engineering...</t>
   </si>
   <si>
     <t>Rich Dad Poor Dad</t>
   </si>
   <si>
-    <t>Word Power Made Easy - The Complete Handbook for Buildi...</t>
-  </si>
-  <si>
-    <t>Cbse All in One Science Class 10 for for 2022 Exam</t>
-  </si>
-  <si>
-    <t>Mission IAS</t>
-  </si>
-  <si>
-    <t>26 Years Upsc IAS/ Ips Prelims Topic-Wise Solved Papers...</t>
-  </si>
-  <si>
-    <t>General Knowledge 2022</t>
-  </si>
-  <si>
-    <t>Upsc New Syllabus &amp; Tips to Crack IAS Preliminary and M...</t>
-  </si>
-  <si>
-    <t>How to Crack Test of Reasoning</t>
-  </si>
-  <si>
-    <t>Great Stories for Children</t>
-  </si>
-  <si>
-    <t>Ssc Samanya Gyan Topic-Wise</t>
-  </si>
-  <si>
-    <t>Oxford Student Atlas for India</t>
-  </si>
-  <si>
-    <t>The Psychology of Money</t>
-  </si>
-  <si>
-    <t>Bharat Ki Rajvyavastha ( Indian Polity ) - Civil Seva E...</t>
-  </si>
-  <si>
-    <t>Guide for Intelligence Bureau Assistant Central Intelli...</t>
+    <t>Inner Engineering - A Yogi's Guide to Joy</t>
   </si>
   <si>
     <t>Time Management</t>
   </si>
   <si>
-    <t>Cbse All in One English Language &amp; Literature Class 10 ...</t>
-  </si>
-  <si>
-    <t>How to Prepare For LOGICAL REASONING For CAT | 6th Edit...</t>
-  </si>
-  <si>
-    <t>Olympiad Champs Science, Mathematics, English Class 5</t>
-  </si>
-  <si>
-    <t>A Modern Approach to Verbal &amp; Non-Verbal Reasoning - In...</t>
-  </si>
-  <si>
-    <t>13 Years Solved Papers NEET 2021</t>
-  </si>
-  <si>
-    <t>Pathfinder Nda/Na National Defence Academy &amp; Naval Acad...</t>
-  </si>
-  <si>
-    <t>Olympiad Champs Science, Mathematics, English, Logical ...</t>
-  </si>
-  <si>
-    <t>Upsssc Pet Preliminary Exam Guide 2021</t>
-  </si>
-  <si>
-    <t>Bharatiya Kala Evam Sanskriti ( Indian Art and Culture ...</t>
-  </si>
-  <si>
-    <t>Concepts Of Physics Vol I &amp; II With Solutions Of Both T...</t>
-  </si>
-  <si>
-    <t>Olympiad Champs Science, Mathematics, English Class 7 w...</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹450</t>
-  </si>
-  <si>
-    <t>₹544</t>
-  </si>
-  <si>
-    <t>₹152</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹135</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹548</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹94</t>
+    <t>33 Years NEET And AIIMS &amp; AIPMT PCB (Physics, Chemistry...</t>
+  </si>
+  <si>
+    <t>The Magic Of The Lost Temple</t>
+  </si>
+  <si>
+    <t>Jeet Aapki</t>
+  </si>
+  <si>
+    <t>One Arranged Murder</t>
+  </si>
+  <si>
+    <t>Miss &amp; Chief 101 Animals Stories (Paperback)</t>
+  </si>
+  <si>
+    <t>Mrityu: Jaanen Ek Mahayogi Se (Hindi Translation of Bes...</t>
+  </si>
+  <si>
+    <t>Inner Engineering (Hindi)</t>
+  </si>
+  <si>
+    <t>Why Not Me? A Feeling of Millions (English)</t>
+  </si>
+  <si>
+    <t>ICAI CA Foundation Notes | Paper 1 Principles &amp; Practic...</t>
+  </si>
+  <si>
+    <t>LOOKING FOR ALASKA</t>
+  </si>
+  <si>
+    <t>The Monk Who Sold His Ferrari</t>
+  </si>
+  <si>
+    <t>Sawal hi jawab hai</t>
+  </si>
+  <si>
+    <t>NEET-UG Absolute Physics, Chemistry And Biology Combo (...</t>
+  </si>
+  <si>
+    <t>Three Thousand Stitches -</t>
+  </si>
+  <si>
+    <t>Indian Coast Guard Navik Gd/Db /Yantrik Section 1 Guide...</t>
+  </si>
+  <si>
+    <t>Objective NCERT At Your Fingertips(NEET) - Phy, Chem, B...</t>
+  </si>
+  <si>
+    <t>ICAI CA Foundation Notes | Paper 3 Business Mathematics...</t>
+  </si>
+  <si>
+    <t>Objective General English</t>
+  </si>
+  <si>
+    <t>Aapke Avachetan Man Ki Shakti</t>
+  </si>
+  <si>
+    <t>Wake Up, Life is Calling</t>
+  </si>
+  <si>
+    <t>JEE Main Challenger PCM Books | JEE 2021 Books For Engi...</t>
+  </si>
+  <si>
+    <t>Englishwale.com English Speaking Course Book</t>
+  </si>
+  <si>
+    <t>A Touch of Eternity</t>
+  </si>
+  <si>
+    <t>Man's Search For Meaning</t>
+  </si>
+  <si>
+    <t>ABCD Alphabet Colouring Book For Kids. Learn And Practi...</t>
+  </si>
+  <si>
+    <t>MEN ARE FROM MARS, WOMEN ARE FROM VENUS</t>
+  </si>
+  <si>
+    <t>Manorama Year Book 2021 Covid 19</t>
+  </si>
+  <si>
+    <t>26 Varsh Upsc IAS/ Ips Prarambhik Topic-Wise Solved Pap...</t>
+  </si>
+  <si>
+    <t>Miss &amp; Chief Brilliant Brain Activity Book 3+ (Paperbac...</t>
+  </si>
+  <si>
+    <t>Believe</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>Flowers on the Path</t>
+  </si>
+  <si>
+    <t>Miss &amp; Chief Brilliant Brain Activity Book 6+ (Paperbac...</t>
+  </si>
+  <si>
+    <t>NEET UG Challenger PCB Books Combo For 2021 Medical Ent...</t>
+  </si>
+  <si>
+    <t>33 Years NEET And AIIMS &amp; AIPMT Chemistry Chapterwise P...</t>
+  </si>
+  <si>
+    <t>33 Years NEET And AIIMS &amp; AIPMT Physics Chapterwise Pre...</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹170</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹4,130</t>
+  </si>
+  <si>
+    <t>₹192</t>
+  </si>
+  <si>
+    <t>₹167</t>
+  </si>
+  <si>
+    <t>₹78</t>
+  </si>
+  <si>
+    <t>₹730</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹237</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹140</t>
+  </si>
+  <si>
+    <t>₹197</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹1,220</t>
+  </si>
+  <si>
+    <t>₹147</t>
   </si>
   <si>
     <t>₹79</t>
   </si>
   <si>
-    <t>₹192</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹345</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹310</t>
-  </si>
-  <si>
-    <t>₹130</t>
+    <t>₹3,760</t>
+  </si>
+  <si>
+    <t>₹168</t>
+  </si>
+  <si>
+    <t>₹260</t>
+  </si>
+  <si>
+    <t>₹1,620</t>
+  </si>
+  <si>
+    <t>₹715</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹2,482</t>
+  </si>
+  <si>
+    <t>₹239</t>
+  </si>
+  <si>
+    <t>₹172</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹300</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹189</t>
+  </si>
+  <si>
+    <t>₹263</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹154</t>
+  </si>
+  <si>
+    <t>₹270</t>
+  </si>
+  <si>
+    <t>₹195</t>
+  </si>
+  <si>
+    <t>₹250</t>
+  </si>
+  <si>
+    <t>₹175</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>₹299</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹810</t>
+  </si>
+  <si>
+    <t>₹350</t>
+  </si>
+  <si>
+    <t>₹225</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹265</t>
+  </si>
+  <si>
+    <t>₹2,400</t>
+  </si>
+  <si>
+    <t>₹285</t>
+  </si>
+  <si>
+    <t>₹2,920</t>
   </si>
   <si>
     <t>₹280</t>
   </si>
   <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹207</t>
+    <t>₹575</t>
+  </si>
+  <si>
+    <t>₹230</t>
+  </si>
+  <si>
+    <t>₹399</t>
   </si>
   <si>
     <t>₹150</t>
   </si>
   <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹215</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹580</t>
-  </si>
-  <si>
-    <t>₹226</t>
-  </si>
-  <si>
-    <t>₹325</t>
-  </si>
-  <si>
-    <t>₹600</t>
-  </si>
-  <si>
-    <t>₹550</t>
-  </si>
-  <si>
-    <t>₹528</t>
-  </si>
-  <si>
-    <t>₹285</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹929</t>
-  </si>
-  <si>
-    <t>₹183</t>
-  </si>
-  <si>
-    <t>₹999</t>
-  </si>
-  <si>
-    <t>₹392</t>
-  </si>
-  <si>
-    <t>₹240</t>
-  </si>
-  <si>
-    <t>₹749</t>
-  </si>
-  <si>
-    <t>₹900</t>
-  </si>
-  <si>
-    <t>₹250</t>
-  </si>
-  <si>
-    <t>₹140</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹200</t>
-  </si>
-  <si>
-    <t>₹950</t>
-  </si>
-  <si>
-    <t>₹225</t>
-  </si>
-  <si>
-    <t>₹299</t>
-  </si>
-  <si>
-    <t>₹175</t>
-  </si>
-  <si>
-    <t>₹515</t>
-  </si>
-  <si>
-    <t>₹270</t>
-  </si>
-  <si>
-    <t>₹575</t>
-  </si>
-  <si>
-    <t>₹195</t>
-  </si>
-  <si>
-    <t>₹499</t>
-  </si>
-  <si>
-    <t>₹235</t>
-  </si>
-  <si>
-    <t>₹315</t>
-  </si>
-  <si>
-    <t>₹399</t>
-  </si>
-  <si>
-    <t>₹870</t>
-  </si>
-  <si>
-    <t>₹440</t>
-  </si>
-  <si>
-    <t>₹475</t>
-  </si>
-  <si>
-    <t>₹750</t>
-  </si>
-  <si>
-    <t>₹760</t>
-  </si>
-  <si>
-    <t>₹850</t>
-  </si>
-  <si>
-    <t>₹480</t>
-  </si>
-  <si>
-    <t>₹775</t>
-  </si>
-  <si>
-    <t>₹1,545</t>
-  </si>
-  <si>
-    <t>₹295</t>
-  </si>
-  <si>
-    <t>₹690</t>
-  </si>
-  <si>
-    <t>₹1,370</t>
-  </si>
-  <si>
-    <t>₹790</t>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹2,700</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.7</t>
+    <t>34% off</t>
+  </si>
+  <si>
+    <t>32% off</t>
+  </si>
+  <si>
+    <t>49% off</t>
   </si>
   <si>
     <t>35% off</t>
   </si>
   <si>
-    <t>39% off</t>
+    <t>44% off</t>
+  </si>
+  <si>
+    <t>37% off</t>
+  </si>
+  <si>
+    <t>9% off</t>
+  </si>
+  <si>
+    <t>45% off</t>
   </si>
   <si>
     <t>40% off</t>
   </si>
   <si>
-    <t>33% off</t>
-  </si>
-  <si>
-    <t>32% off</t>
+    <t>30% off</t>
+  </si>
+  <si>
+    <t>21% off</t>
+  </si>
+  <si>
+    <t>38% off</t>
+  </si>
+  <si>
+    <t>36% off</t>
+  </si>
+  <si>
+    <t>1% off</t>
+  </si>
+  <si>
+    <t>31% off</t>
+  </si>
+  <si>
+    <t>53% off</t>
+  </si>
+  <si>
+    <t>46% off</t>
+  </si>
+  <si>
+    <t>15% off</t>
+  </si>
+  <si>
+    <t>14% off</t>
+  </si>
+  <si>
+    <t>42% off</t>
+  </si>
+  <si>
+    <t>10% off</t>
   </si>
   <si>
     <t>47% off</t>
   </si>
   <si>
-    <t>42% off</t>
-  </si>
-  <si>
-    <t>43% off</t>
-  </si>
-  <si>
-    <t>48% off</t>
-  </si>
-  <si>
-    <t>46% off</t>
-  </si>
-  <si>
-    <t>20% off</t>
-  </si>
-  <si>
-    <t>30% off</t>
-  </si>
-  <si>
-    <t>36% off</t>
-  </si>
-  <si>
-    <t>31% off</t>
-  </si>
-  <si>
-    <t>27% off</t>
-  </si>
-  <si>
-    <t>37% off</t>
-  </si>
-  <si>
-    <t>34% off</t>
-  </si>
-  <si>
-    <t>50% off</t>
-  </si>
-  <si>
-    <t>(1,624)</t>
-  </si>
-  <si>
-    <t>(54,378)</t>
-  </si>
-  <si>
-    <t>(24,283)</t>
-  </si>
-  <si>
-    <t>(1,032)</t>
-  </si>
-  <si>
-    <t>(488)</t>
-  </si>
-  <si>
-    <t>(3,452)</t>
-  </si>
-  <si>
-    <t>(42,944)</t>
-  </si>
-  <si>
-    <t>(2,024)</t>
-  </si>
-  <si>
-    <t>(4,880)</t>
-  </si>
-  <si>
-    <t>(35,552)</t>
-  </si>
-  <si>
-    <t>(887)</t>
-  </si>
-  <si>
-    <t>(244)</t>
-  </si>
-  <si>
-    <t>(7,442)</t>
-  </si>
-  <si>
-    <t>(85,923)</t>
-  </si>
-  <si>
-    <t>(1,246)</t>
-  </si>
-  <si>
-    <t>(2,132)</t>
-  </si>
-  <si>
-    <t>(9,762)</t>
-  </si>
-  <si>
-    <t>(2,146)</t>
-  </si>
-  <si>
-    <t>(32,494)</t>
-  </si>
-  <si>
-    <t>(9,330)</t>
-  </si>
-  <si>
-    <t>(4,298)</t>
-  </si>
-  <si>
-    <t>(19,345)</t>
-  </si>
-  <si>
-    <t>(10,739)</t>
-  </si>
-  <si>
-    <t>(67)</t>
-  </si>
-  <si>
-    <t>(32,950)</t>
-  </si>
-  <si>
-    <t>(3,191)</t>
-  </si>
-  <si>
-    <t>(13,848)</t>
-  </si>
-  <si>
-    <t>(86)</t>
-  </si>
-  <si>
-    <t>(15,596)</t>
-  </si>
-  <si>
-    <t>(1,061)</t>
-  </si>
-  <si>
-    <t>(95)</t>
-  </si>
-  <si>
-    <t>(59)</t>
-  </si>
-  <si>
-    <t>(30,603)</t>
-  </si>
-  <si>
-    <t>(1,209)</t>
-  </si>
-  <si>
-    <t>(9,503)</t>
-  </si>
-  <si>
-    <t>(35)</t>
-  </si>
-  <si>
-    <t>(302)</t>
-  </si>
-  <si>
-    <t>(4,971)</t>
-  </si>
-  <si>
-    <t>(1,889)</t>
-  </si>
-  <si>
-    <t>(20)</t>
+    <t>8% off</t>
+  </si>
+  <si>
+    <t>(4,077)</t>
+  </si>
+  <si>
+    <t>(39,294)</t>
+  </si>
+  <si>
+    <t>(86,068)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(7,451)</t>
+  </si>
+  <si>
+    <t>(14,718)</t>
+  </si>
+  <si>
+    <t>(15,670)</t>
+  </si>
+  <si>
+    <t>(859)</t>
+  </si>
+  <si>
+    <t>(3,585)</t>
+  </si>
+  <si>
+    <t>(7,815)</t>
+  </si>
+  <si>
+    <t>(18,729)</t>
+  </si>
+  <si>
+    <t>(320)</t>
+  </si>
+  <si>
+    <t>(6,390)</t>
+  </si>
+  <si>
+    <t>(4,675)</t>
+  </si>
+  <si>
+    <t>(7,126)</t>
+  </si>
+  <si>
+    <t>(27,437)</t>
+  </si>
+  <si>
+    <t>(7,199)</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(7,929)</t>
+  </si>
+  <si>
+    <t>(262)</t>
+  </si>
+  <si>
+    <t>(507)</t>
+  </si>
+  <si>
+    <t>(50,639)</t>
+  </si>
+  <si>
+    <t>(5,158)</t>
+  </si>
+  <si>
+    <t>(9,925)</t>
+  </si>
+  <si>
+    <t>(16,556)</t>
+  </si>
+  <si>
+    <t>(1,931)</t>
+  </si>
+  <si>
+    <t>(10,864)</t>
+  </si>
+  <si>
+    <t>(5,053)</t>
+  </si>
+  <si>
+    <t>(3,939)</t>
+  </si>
+  <si>
+    <t>(2,451)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(809)</t>
+  </si>
+  <si>
+    <t>(2,422)</t>
+  </si>
+  <si>
+    <t>(4,824)</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>(182)</t>
+  </si>
+  <si>
+    <t>(169)</t>
   </si>
 </sst>
 </file>
@@ -905,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,19 +936,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -962,19 +959,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -985,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1008,19 +1005,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1031,19 +1028,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1054,19 +1051,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1077,19 +1074,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1100,19 +1097,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1123,19 +1120,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1146,19 +1143,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1166,22 +1163,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1189,22 +1186,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1212,22 +1209,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1235,22 +1232,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1258,22 +1255,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1281,22 +1278,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1304,19 +1301,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
         <v>154</v>
@@ -1327,19 +1324,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
         <v>155</v>
@@ -1350,19 +1347,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>156</v>
@@ -1373,19 +1370,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
         <v>157</v>
@@ -1396,19 +1393,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>158</v>
@@ -1419,19 +1416,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
         <v>159</v>
@@ -1442,19 +1439,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>160</v>
@@ -1465,22 +1462,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1488,22 +1485,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1511,22 +1508,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
         <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1534,22 +1531,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1557,22 +1554,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1580,22 +1577,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1603,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1626,22 +1623,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1649,22 +1646,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1672,22 +1669,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1695,22 +1692,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1718,22 +1715,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1741,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1764,22 +1761,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1787,22 +1784,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1810,22 +1807,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
-        <v>116</v>
-      </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1833,22 +1830,942 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" t="s">
         <v>112</v>
       </c>
-      <c r="E41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" t="s">
-        <v>177</v>
+      <c r="F78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" t="s">
+        <v>129</v>
+      </c>
+      <c r="G79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
